--- a/evaluation/results/activemq_eval.xlsx
+++ b/evaluation/results/activemq_eval.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/eval_smt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/repository/automatic-error-detection/evaluation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="activemq" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>class</t>
   </si>
@@ -116,30 +116,15 @@
     <t>rampDownTime</t>
   </si>
   <si>
-    <t>Warning</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>Bug</t>
   </si>
   <si>
-    <t>&lt;- Good example why warning</t>
-  </si>
-  <si>
-    <t>https://issues.apache.org/jira/browse/AMQ-6783</t>
-  </si>
-  <si>
     <t>err</t>
   </si>
   <si>
-    <t>&lt;- change of the value in a emthod call</t>
-  </si>
-  <si>
-    <t>&lt;- same of before</t>
-  </si>
-  <si>
     <t>org.apache.activemq.plugin.SubQueueSelectorCacheBroker</t>
   </si>
   <si>
@@ -165,24 +150,12 @@
   </si>
   <si>
     <t>keepAliveInterval</t>
-  </si>
-  <si>
-    <t>https://issues.apache.org/jira/browse/AMQ-6786</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -344,20 +317,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
-  <autoFilter ref="A1:G17"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="class"/>
     <tableColumn id="2" name="method"/>
     <tableColumn id="3" name="line"/>
     <tableColumn id="4" name="variable"/>
     <tableColumn id="5" name="Bug"/>
-    <tableColumn id="6" name="Warning"/>
     <tableColumn id="7" name="err"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -627,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +615,7 @@
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +629,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -676,11 +648,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -693,11 +662,8 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -710,14 +676,8 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -731,13 +691,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -750,14 +707,11 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -770,11 +724,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -787,14 +741,11 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -807,11 +758,8 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -824,11 +772,8 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -841,11 +786,8 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -858,85 +800,70 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>478</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>327</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -948,44 +875,6 @@
       </c>
       <c r="D17" t="s">
         <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20">
-        <f>COUNTA(Table1[Bug])+COUNTA(Table1[Warning])</f>
-        <v>13</v>
-      </c>
-      <c r="L20">
-        <f>J20/J22</f>
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21">
-        <f>COUNTA(Table1[err])</f>
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <f>J21/J22</f>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22">
-        <f>COUNTA(Table1[class])</f>
-        <v>16</v>
       </c>
     </row>
   </sheetData>
